--- a/新员工年度总结(张文轩).xlsx
+++ b/新员工年度总结(张文轩).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zyq\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12739\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7889ED-1050-43F0-A112-D6867CF4144B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551990E8-EB50-4AA0-B828-A9A6F72C3E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新员工年度总结(张文轩)" sheetId="75" r:id="rId1"/>
@@ -693,7 +693,7 @@
     <definedName name="HTMLCount" hidden="1">54</definedName>
     <definedName name="IOO" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">CODE!$A$1:$H$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'新员工年度总结(张文轩)'!$A$1:$AS$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'新员工年度总结(张文轩)'!$A$1:$AS$71</definedName>
     <definedName name="q" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="s" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="s" hidden="1">#REF!</definedName>
@@ -719,22 +719,11 @@
     <definedName name="区分">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>文档编号</t>
   </si>
@@ -1236,6 +1225,8 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>，导致容易产出不符合编码规约的代码(变量命名不规范、组件属性排序错误、CSS排序错误等)、提交</t>
     </r>
@@ -1337,7 +1328,127 @@
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
-    <t>问题：对于自身修改的变更或缺陷，进行UT测试时</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：在进行UT测试时(尤其是自己修改的变更或缺陷)，投入的时间与精力不足，且测试点几乎只停留在</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能测试(如程序是否能正常运行、新增加或修改的功能是否已经实现以及一些较为明显的画面错误)，缺</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>少一些非功能性测试(如业务逻辑是否通顺、API调用次数与顺序是否合理、响应时间是否过长、并发性、</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全性以及兼容性等)。</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：在周计划执行过程中，不能准确估计任务量，使得每日计划分配不合理，从而产生延迟；同时，对</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>于某些自己不熟悉的模块的任务(如第一次修改大数据的缺陷、复数数据集比较涉及的图表等)，工作效率</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>较低，从而导致任务无法按时完成，出现延迟。</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>：当自己在评审或询问问题的过程中，容易遗忘在此期间收到的老师安排的工作任务(如台账的填写、</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>source提交任务的执行等)。</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、工具与技术的使用更加熟练，工作过程中能够熟练掌握并灵活运用AI工具来帮助自己完成一些工作</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、团队协作与沟通能力有所提升，对于自己不熟悉的业务、流程以及遇到的编码难点等，能够及时寻</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 求帮助(如果是单纯的技术问题，可以先通过AI工具询问，如果给出的答复自己难以消化，此时再带</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 着自己的疑问与想法去问，询问前一定要有自己的思考，否则很难有收获)。</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 提高了自己的工作效率和质量。</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 任务(AI给出的答复不一定是对的，在使用AI工具的过程中也提高了我对AI给出代码的辨别能力)，</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、自查/测试观点更加丰富，刚入职时的自查/测试只分对错，能正常运行的程序就是好程序；现在我</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 会考究程序代码是否精简、调用是否冗余，内存消耗与时间消耗是否平衡可接受，以及用户使用体</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 验是否良好等。</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
@@ -1528,6 +1639,8 @@
       <b/>
       <sz val="10"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1539,6 +1652,8 @@
     <font>
       <sz val="10"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1770,7 +1885,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1857,6 +1972,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="38" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="38" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1875,9 +1992,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="_sst1B9" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
@@ -2275,10 +2389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BJ72"/>
+  <dimension ref="A1:BJ87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W36" sqref="W36"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:AS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -2288,105 +2402,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="28.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="43"/>
-      <c r="AQ1" s="43"/>
-      <c r="AR1" s="43"/>
-      <c r="AS1" s="43"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
+      <c r="AS1" s="45"/>
       <c r="AT1" s="29"/>
     </row>
     <row r="2" spans="1:54" s="7" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="45"/>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="47" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="47"/>
+      <c r="AO2" s="48"/>
+      <c r="AP2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="45"/>
-      <c r="AS2" s="45"/>
+      <c r="AQ2" s="47"/>
+      <c r="AR2" s="47"/>
+      <c r="AS2" s="47"/>
       <c r="AT2" s="30"/>
     </row>
     <row r="3" spans="1:54" s="7" customFormat="1" ht="6" customHeight="1">
@@ -2949,15 +3063,16 @@
     <row r="13" spans="1:54" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="15"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="25"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
       <c r="M13" s="23"/>
@@ -3004,16 +3119,17 @@
       <c r="BB13" s="34"/>
     </row>
     <row r="14" spans="1:54" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="15"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="25"/>
+      <c r="C14" s="22"/>
+      <c r="E14" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
       <c r="M14" s="23"/>
@@ -3060,16 +3176,17 @@
       <c r="BB14" s="34"/>
     </row>
     <row r="15" spans="1:54" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="15"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="25"/>
+      <c r="C15" s="22"/>
+      <c r="E15" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
       <c r="K15" s="23"/>
       <c r="L15" s="23"/>
       <c r="M15" s="23"/>
@@ -3117,16 +3234,17 @@
     </row>
     <row r="16" spans="1:54" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="15"/>
-      <c r="B16" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="25"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
       <c r="M16" s="23"/>
@@ -3172,127 +3290,247 @@
       <c r="BA16" s="34"/>
       <c r="BB16" s="34"/>
     </row>
-    <row r="17" spans="1:62" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="C17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="37"/>
+    <row r="17" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A17" s="15"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="22"/>
+      <c r="E17" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="21"/>
+      <c r="AK17" s="21"/>
+      <c r="AL17" s="21"/>
+      <c r="AM17" s="21"/>
       <c r="AN17" s="21"/>
       <c r="AO17" s="7"/>
       <c r="AP17" s="32"/>
-      <c r="AT17" s="7"/>
-      <c r="AU17" s="8"/>
-      <c r="AV17" s="8"/>
-      <c r="AW17" s="7"/>
-      <c r="AX17" s="7"/>
-      <c r="AY17" s="7"/>
-      <c r="AZ17" s="7"/>
-      <c r="BA17" s="7"/>
-      <c r="BB17" s="7"/>
-      <c r="BC17" s="7"/>
-      <c r="BD17" s="7"/>
-      <c r="BE17" s="7"/>
-      <c r="BF17" s="7"/>
-      <c r="BG17" s="7"/>
-      <c r="BH17" s="7"/>
-      <c r="BI17" s="7"/>
-      <c r="BJ17" s="7"/>
-    </row>
-    <row r="18" spans="1:62" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="C18" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="37"/>
+      <c r="AQ17" s="7"/>
+      <c r="AR17" s="7"/>
+      <c r="AS17" s="7"/>
+      <c r="AT17" s="21"/>
+      <c r="AU17" s="7"/>
+      <c r="AV17" s="7"/>
+      <c r="AW17" s="34"/>
+      <c r="AX17" s="35"/>
+      <c r="AY17" s="35"/>
+      <c r="AZ17" s="34"/>
+      <c r="BA17" s="34"/>
+      <c r="BB17" s="34"/>
+    </row>
+    <row r="18" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A18" s="15"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="22"/>
+      <c r="E18" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="21"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="21"/>
+      <c r="AG18" s="21"/>
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="21"/>
+      <c r="AJ18" s="21"/>
+      <c r="AK18" s="21"/>
+      <c r="AL18" s="21"/>
+      <c r="AM18" s="21"/>
       <c r="AN18" s="21"/>
       <c r="AO18" s="7"/>
       <c r="AP18" s="32"/>
-      <c r="AT18" s="7"/>
-      <c r="AU18" s="8"/>
-      <c r="AV18" s="8"/>
-      <c r="AW18" s="7"/>
-      <c r="AX18" s="7"/>
-      <c r="AY18" s="7"/>
-      <c r="AZ18" s="7"/>
-      <c r="BA18" s="7"/>
-      <c r="BB18" s="7"/>
-      <c r="BC18" s="7"/>
-      <c r="BD18" s="7"/>
-      <c r="BE18" s="7"/>
-      <c r="BF18" s="7"/>
-      <c r="BG18" s="7"/>
-      <c r="BH18" s="7"/>
-      <c r="BI18" s="7"/>
-      <c r="BJ18" s="7"/>
-    </row>
-    <row r="19" spans="1:62" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="C19" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="37"/>
+      <c r="AQ18" s="7"/>
+      <c r="AR18" s="7"/>
+      <c r="AS18" s="7"/>
+      <c r="AT18" s="21"/>
+      <c r="AU18" s="7"/>
+      <c r="AV18" s="7"/>
+      <c r="AW18" s="34"/>
+      <c r="AX18" s="35"/>
+      <c r="AY18" s="35"/>
+      <c r="AZ18" s="34"/>
+      <c r="BA18" s="34"/>
+      <c r="BB18" s="34"/>
+    </row>
+    <row r="19" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A19" s="15"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="21"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="21"/>
+      <c r="AG19" s="21"/>
+      <c r="AH19" s="21"/>
+      <c r="AI19" s="21"/>
+      <c r="AJ19" s="21"/>
+      <c r="AK19" s="21"/>
+      <c r="AL19" s="21"/>
+      <c r="AM19" s="21"/>
       <c r="AN19" s="21"/>
       <c r="AO19" s="7"/>
       <c r="AP19" s="32"/>
-      <c r="AT19" s="7"/>
-      <c r="AU19" s="8"/>
-      <c r="AV19" s="8"/>
-      <c r="AW19" s="7"/>
-      <c r="AX19" s="7"/>
-      <c r="AY19" s="7"/>
-      <c r="AZ19" s="7"/>
-      <c r="BA19" s="7"/>
-      <c r="BB19" s="7"/>
-      <c r="BC19" s="7"/>
-      <c r="BD19" s="7"/>
-      <c r="BE19" s="7"/>
-      <c r="BF19" s="7"/>
-      <c r="BG19" s="7"/>
-      <c r="BH19" s="7"/>
-      <c r="BI19" s="7"/>
-      <c r="BJ19" s="7"/>
-    </row>
-    <row r="20" spans="1:62" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="C20" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="37"/>
+      <c r="AQ19" s="7"/>
+      <c r="AR19" s="7"/>
+      <c r="AS19" s="7"/>
+      <c r="AT19" s="21"/>
+      <c r="AU19" s="7"/>
+      <c r="AV19" s="7"/>
+      <c r="AW19" s="34"/>
+      <c r="AX19" s="35"/>
+      <c r="AY19" s="35"/>
+      <c r="AZ19" s="34"/>
+      <c r="BA19" s="34"/>
+      <c r="BB19" s="34"/>
+    </row>
+    <row r="20" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A20" s="15"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="22"/>
+      <c r="E20" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="21"/>
+      <c r="AG20" s="21"/>
+      <c r="AH20" s="21"/>
+      <c r="AI20" s="21"/>
+      <c r="AJ20" s="21"/>
+      <c r="AK20" s="21"/>
+      <c r="AL20" s="21"/>
+      <c r="AM20" s="21"/>
       <c r="AN20" s="21"/>
       <c r="AO20" s="7"/>
       <c r="AP20" s="32"/>
-      <c r="AT20" s="7"/>
-      <c r="AU20" s="8"/>
-      <c r="AV20" s="8"/>
-      <c r="AW20" s="7"/>
-      <c r="AX20" s="7"/>
-      <c r="AY20" s="7"/>
-      <c r="AZ20" s="7"/>
-      <c r="BA20" s="7"/>
-      <c r="BB20" s="7"/>
-      <c r="BC20" s="7"/>
-      <c r="BD20" s="7"/>
-      <c r="BE20" s="7"/>
-      <c r="BF20" s="7"/>
-      <c r="BG20" s="7"/>
-      <c r="BH20" s="7"/>
-      <c r="BI20" s="7"/>
-      <c r="BJ20" s="7"/>
+      <c r="AQ20" s="7"/>
+      <c r="AR20" s="7"/>
+      <c r="AS20" s="7"/>
+      <c r="AT20" s="21"/>
+      <c r="AU20" s="7"/>
+      <c r="AV20" s="7"/>
+      <c r="AW20" s="34"/>
+      <c r="AX20" s="35"/>
+      <c r="AY20" s="35"/>
+      <c r="AZ20" s="34"/>
+      <c r="BA20" s="34"/>
+      <c r="BB20" s="34"/>
     </row>
     <row r="21" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="15"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="25"/>
+      <c r="C21" s="22"/>
+      <c r="E21" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
       <c r="K21" s="23"/>
       <c r="L21" s="23"/>
       <c r="M21" s="23"/>
@@ -3342,10 +3580,9 @@
       <c r="A22" s="15"/>
       <c r="B22" s="7"/>
       <c r="C22" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
+        <v>26</v>
+      </c>
+      <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="19"/>
       <c r="H22" s="7"/>
@@ -3397,13 +3634,11 @@
       <c r="BB22" s="34"/>
     </row>
     <row r="23" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="15"/>
       <c r="B23" s="7"/>
       <c r="C23" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
+        <v>27</v>
+      </c>
+      <c r="E23" s="37"/>
       <c r="F23" s="18"/>
       <c r="G23" s="19"/>
       <c r="H23" s="7"/>
@@ -3455,11 +3690,11 @@
       <c r="BB23" s="34"/>
     </row>
     <row r="24" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="15"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
+      <c r="C24" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="37"/>
       <c r="F24" s="18"/>
       <c r="G24" s="19"/>
       <c r="H24" s="7"/>
@@ -3512,11 +3747,10 @@
     </row>
     <row r="25" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="15"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="24"/>
+      <c r="B25" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="16"/>
       <c r="E25" s="17"/>
       <c r="F25" s="18"/>
       <c r="G25" s="19"/>
@@ -3569,8 +3803,8 @@
       <c r="BB25" s="34"/>
     </row>
     <row r="26" spans="1:62" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="C26" s="48" t="s">
-        <v>58</v>
+      <c r="C26" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="D26" s="24"/>
       <c r="E26" s="37"/>
@@ -3596,8 +3830,8 @@
       <c r="BJ26" s="7"/>
     </row>
     <row r="27" spans="1:62" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="C27" s="50" t="s">
-        <v>60</v>
+      <c r="C27" s="42" t="s">
+        <v>55</v>
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="37"/>
@@ -3623,8 +3857,8 @@
       <c r="BJ27" s="7"/>
     </row>
     <row r="28" spans="1:62" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="C28" s="49" t="s">
-        <v>59</v>
+      <c r="C28" s="43" t="s">
+        <v>56</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="37"/>
@@ -3649,71 +3883,40 @@
       <c r="BI28" s="7"/>
       <c r="BJ28" s="7"/>
     </row>
-    <row r="29" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="15"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="17"/>
-      <c r="AC29" s="17"/>
-      <c r="AD29" s="17"/>
-      <c r="AE29" s="17"/>
-      <c r="AF29" s="17"/>
-      <c r="AG29" s="17"/>
-      <c r="AH29" s="21"/>
-      <c r="AI29" s="21"/>
-      <c r="AJ29" s="21"/>
-      <c r="AK29" s="21"/>
-      <c r="AL29" s="21"/>
-      <c r="AM29" s="21"/>
+    <row r="29" spans="1:62" s="9" customFormat="1" ht="18" customHeight="1">
+      <c r="C29" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="24"/>
+      <c r="E29" s="37"/>
       <c r="AN29" s="21"/>
       <c r="AO29" s="7"/>
       <c r="AP29" s="32"/>
-      <c r="AQ29" s="7"/>
-      <c r="AR29" s="7"/>
-      <c r="AS29" s="7"/>
-      <c r="AT29" s="21"/>
-      <c r="AU29" s="7"/>
-      <c r="AV29" s="7"/>
-      <c r="AW29" s="34"/>
-      <c r="AX29" s="35"/>
-      <c r="AY29" s="35"/>
-      <c r="AZ29" s="34"/>
-      <c r="BA29" s="34"/>
-      <c r="BB29" s="34"/>
+      <c r="AT29" s="7"/>
+      <c r="AU29" s="8"/>
+      <c r="AV29" s="8"/>
+      <c r="AW29" s="7"/>
+      <c r="AX29" s="7"/>
+      <c r="AY29" s="7"/>
+      <c r="AZ29" s="7"/>
+      <c r="BA29" s="7"/>
+      <c r="BB29" s="7"/>
+      <c r="BC29" s="7"/>
+      <c r="BD29" s="7"/>
+      <c r="BE29" s="7"/>
+      <c r="BF29" s="7"/>
+      <c r="BG29" s="7"/>
+      <c r="BH29" s="7"/>
+      <c r="BI29" s="7"/>
+      <c r="BJ29" s="7"/>
     </row>
     <row r="30" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="15"/>
       <c r="B30" s="7"/>
       <c r="C30" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="24"/>
+        <v>52</v>
+      </c>
+      <c r="D30" s="16"/>
       <c r="E30" s="17"/>
       <c r="F30" s="18"/>
       <c r="G30" s="19"/>
@@ -3769,9 +3972,9 @@
       <c r="A31" s="15"/>
       <c r="B31" s="7"/>
       <c r="C31" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="24"/>
+        <v>53</v>
+      </c>
+      <c r="D31" s="16"/>
       <c r="E31" s="17"/>
       <c r="F31" s="18"/>
       <c r="G31" s="19"/>
@@ -3809,6 +4012,7 @@
       <c r="AM31" s="21"/>
       <c r="AN31" s="21"/>
       <c r="AO31" s="7"/>
+      <c r="AP31" s="32"/>
       <c r="AQ31" s="7"/>
       <c r="AR31" s="7"/>
       <c r="AS31" s="7"/>
@@ -3826,16 +4030,16 @@
       <c r="A32" s="15"/>
       <c r="B32" s="7"/>
       <c r="C32" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
+        <v>54</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="23"/>
       <c r="L32" s="23"/>
       <c r="M32" s="23"/>
       <c r="N32" s="23"/>
@@ -3866,7 +4070,7 @@
       <c r="AM32" s="21"/>
       <c r="AN32" s="21"/>
       <c r="AO32" s="7"/>
-      <c r="AP32" s="33"/>
+      <c r="AP32" s="32"/>
       <c r="AQ32" s="7"/>
       <c r="AR32" s="7"/>
       <c r="AS32" s="7"/>
@@ -3882,20 +4086,18 @@
     </row>
     <row r="33" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A33" s="15"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
       <c r="N33" s="23"/>
       <c r="O33" s="23"/>
       <c r="P33" s="23"/>
@@ -3928,23 +4130,32 @@
       <c r="AQ33" s="7"/>
       <c r="AR33" s="7"/>
       <c r="AS33" s="7"/>
+      <c r="AT33" s="21"/>
       <c r="AU33" s="7"/>
       <c r="AV33" s="7"/>
+      <c r="AW33" s="34"/>
+      <c r="AX33" s="35"/>
+      <c r="AY33" s="35"/>
+      <c r="AZ33" s="34"/>
+      <c r="BA33" s="34"/>
+      <c r="BB33" s="34"/>
     </row>
     <row r="34" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A34" s="15"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="24"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
       <c r="N34" s="23"/>
       <c r="O34" s="23"/>
       <c r="P34" s="23"/>
@@ -3977,62 +4188,46 @@
       <c r="AQ34" s="7"/>
       <c r="AR34" s="7"/>
       <c r="AS34" s="7"/>
+      <c r="AT34" s="21"/>
       <c r="AU34" s="7"/>
       <c r="AV34" s="7"/>
-    </row>
-    <row r="35" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="15"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="27"/>
-      <c r="S35" s="27"/>
-      <c r="T35" s="27"/>
-      <c r="U35" s="27"/>
-      <c r="V35" s="27"/>
-      <c r="W35" s="27"/>
-      <c r="X35" s="7"/>
-      <c r="Z35" s="21"/>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="21"/>
-      <c r="AC35" s="21"/>
-      <c r="AD35" s="7"/>
-      <c r="AE35" s="7"/>
-      <c r="AF35" s="21"/>
-      <c r="AG35" s="21"/>
-      <c r="AH35" s="21"/>
-      <c r="AI35" s="21"/>
-      <c r="AJ35" s="21"/>
-      <c r="AK35" s="21"/>
-      <c r="AL35" s="21"/>
-      <c r="AM35" s="21"/>
+      <c r="AW34" s="34"/>
+      <c r="AX34" s="35"/>
+      <c r="AY34" s="35"/>
+      <c r="AZ34" s="34"/>
+      <c r="BA34" s="34"/>
+      <c r="BB34" s="34"/>
+    </row>
+    <row r="35" spans="1:62" s="9" customFormat="1" ht="18" customHeight="1">
+      <c r="C35" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="24"/>
+      <c r="E35" s="37"/>
       <c r="AN35" s="21"/>
       <c r="AO35" s="7"/>
       <c r="AP35" s="32"/>
-      <c r="AQ35" s="7"/>
-      <c r="AR35" s="7"/>
-      <c r="AS35" s="7"/>
-      <c r="AU35" s="7"/>
-      <c r="AV35" s="7"/>
+      <c r="AT35" s="7"/>
+      <c r="AU35" s="8"/>
+      <c r="AV35" s="8"/>
+      <c r="AW35" s="7"/>
+      <c r="AX35" s="7"/>
+      <c r="AY35" s="7"/>
+      <c r="AZ35" s="7"/>
+      <c r="BA35" s="7"/>
+      <c r="BB35" s="7"/>
+      <c r="BC35" s="7"/>
+      <c r="BD35" s="7"/>
+      <c r="BE35" s="7"/>
+      <c r="BF35" s="7"/>
+      <c r="BG35" s="7"/>
+      <c r="BH35" s="7"/>
+      <c r="BI35" s="7"/>
+      <c r="BJ35" s="7"/>
     </row>
     <row r="36" spans="1:62" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="C36" s="48" t="s">
-        <v>64</v>
+      <c r="C36" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="37"/>
@@ -4058,8 +4253,8 @@
       <c r="BJ36" s="7"/>
     </row>
     <row r="37" spans="1:62" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="C37" s="50" t="s">
-        <v>60</v>
+      <c r="C37" s="43" t="s">
+        <v>59</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="37"/>
@@ -4084,49 +4279,80 @@
       <c r="BI37" s="7"/>
       <c r="BJ37" s="7"/>
     </row>
-    <row r="38" spans="1:62" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="C38" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="37"/>
+    <row r="38" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A38" s="15"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="17"/>
+      <c r="AB38" s="17"/>
+      <c r="AC38" s="17"/>
+      <c r="AD38" s="17"/>
+      <c r="AE38" s="17"/>
+      <c r="AF38" s="17"/>
+      <c r="AG38" s="17"/>
+      <c r="AH38" s="21"/>
+      <c r="AI38" s="21"/>
+      <c r="AJ38" s="21"/>
+      <c r="AK38" s="21"/>
+      <c r="AL38" s="21"/>
+      <c r="AM38" s="21"/>
       <c r="AN38" s="21"/>
       <c r="AO38" s="7"/>
       <c r="AP38" s="32"/>
-      <c r="AT38" s="7"/>
-      <c r="AU38" s="8"/>
-      <c r="AV38" s="8"/>
-      <c r="AW38" s="7"/>
-      <c r="AX38" s="7"/>
-      <c r="AY38" s="7"/>
-      <c r="AZ38" s="7"/>
-      <c r="BA38" s="7"/>
-      <c r="BB38" s="7"/>
-      <c r="BC38" s="7"/>
-      <c r="BD38" s="7"/>
-      <c r="BE38" s="7"/>
-      <c r="BF38" s="7"/>
-      <c r="BG38" s="7"/>
-      <c r="BH38" s="7"/>
-      <c r="BI38" s="7"/>
-      <c r="BJ38" s="7"/>
+      <c r="AQ38" s="7"/>
+      <c r="AR38" s="7"/>
+      <c r="AS38" s="7"/>
+      <c r="AT38" s="21"/>
+      <c r="AU38" s="7"/>
+      <c r="AV38" s="7"/>
+      <c r="AW38" s="34"/>
+      <c r="AX38" s="35"/>
+      <c r="AY38" s="35"/>
+      <c r="AZ38" s="34"/>
+      <c r="BA38" s="34"/>
+      <c r="BB38" s="34"/>
     </row>
     <row r="39" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A39" s="15"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="16"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="24"/>
       <c r="E39" s="17"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="19"/>
       <c r="H39" s="7"/>
       <c r="I39" s="17"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
       <c r="N39" s="23"/>
       <c r="O39" s="23"/>
       <c r="P39" s="23"/>
@@ -4159,24 +4385,32 @@
       <c r="AQ39" s="7"/>
       <c r="AR39" s="7"/>
       <c r="AS39" s="7"/>
+      <c r="AT39" s="21"/>
       <c r="AU39" s="7"/>
       <c r="AV39" s="7"/>
+      <c r="AW39" s="34"/>
+      <c r="AX39" s="35"/>
+      <c r="AY39" s="35"/>
+      <c r="AZ39" s="34"/>
+      <c r="BA39" s="34"/>
+      <c r="BB39" s="34"/>
     </row>
     <row r="40" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="15"/>
-      <c r="B40" s="20"/>
+      <c r="B40" s="7"/>
       <c r="C40" s="21" t="s">
-        <v>41</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D40" s="24"/>
       <c r="E40" s="17"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="19"/>
       <c r="H40" s="7"/>
       <c r="I40" s="17"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
       <c r="N40" s="23"/>
       <c r="O40" s="23"/>
       <c r="P40" s="23"/>
@@ -4205,29 +4439,35 @@
       <c r="AM40" s="21"/>
       <c r="AN40" s="21"/>
       <c r="AO40" s="7"/>
-      <c r="AP40" s="32"/>
       <c r="AQ40" s="7"/>
       <c r="AR40" s="7"/>
       <c r="AS40" s="7"/>
+      <c r="AT40" s="21"/>
       <c r="AU40" s="7"/>
       <c r="AV40" s="7"/>
+      <c r="AW40" s="34"/>
+      <c r="AX40" s="35"/>
+      <c r="AY40" s="35"/>
+      <c r="AZ40" s="34"/>
+      <c r="BA40" s="34"/>
+      <c r="BB40" s="34"/>
     </row>
     <row r="41" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A41" s="15"/>
-      <c r="B41" s="20"/>
+      <c r="B41" s="7"/>
       <c r="C41" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
+        <v>39</v>
+      </c>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
       <c r="N41" s="23"/>
       <c r="O41" s="23"/>
       <c r="P41" s="23"/>
@@ -4256,27 +4496,34 @@
       <c r="AM41" s="21"/>
       <c r="AN41" s="21"/>
       <c r="AO41" s="7"/>
-      <c r="AP41" s="32"/>
+      <c r="AP41" s="33"/>
       <c r="AQ41" s="7"/>
       <c r="AR41" s="7"/>
       <c r="AS41" s="7"/>
+      <c r="AT41" s="21"/>
       <c r="AU41" s="7"/>
       <c r="AV41" s="7"/>
+      <c r="AW41" s="34"/>
+      <c r="AX41" s="35"/>
+      <c r="AY41" s="35"/>
+      <c r="AZ41" s="34"/>
+      <c r="BA41" s="34"/>
+      <c r="BB41" s="34"/>
     </row>
     <row r="42" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A42" s="15"/>
       <c r="B42" s="20"/>
       <c r="C42" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
+        <v>40</v>
+      </c>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
       <c r="L42" s="26"/>
       <c r="M42" s="26"/>
       <c r="N42" s="23"/>
@@ -4317,17 +4564,15 @@
     <row r="43" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A43" s="15"/>
       <c r="B43" s="20"/>
-      <c r="C43" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
       <c r="L43" s="26"/>
       <c r="M43" s="26"/>
       <c r="N43" s="23"/>
@@ -4368,14 +4613,16 @@
     <row r="44" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A44" s="15"/>
       <c r="B44" s="20"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="37"/>
+      <c r="C44" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="21"/>
       <c r="E44" s="17"/>
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
-      <c r="H44" s="36"/>
+      <c r="H44" s="7"/>
       <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
+      <c r="J44" s="26"/>
       <c r="K44" s="26"/>
       <c r="L44" s="26"/>
       <c r="M44" s="26"/>
@@ -4390,7 +4637,6 @@
       <c r="V44" s="27"/>
       <c r="W44" s="27"/>
       <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
       <c r="Z44" s="21"/>
       <c r="AA44" s="7"/>
       <c r="AB44" s="21"/>
@@ -4414,215 +4660,119 @@
       <c r="AU44" s="7"/>
       <c r="AV44" s="7"/>
     </row>
-    <row r="45" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="15"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45" s="37"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="27"/>
-      <c r="S45" s="27"/>
-      <c r="T45" s="27"/>
-      <c r="U45" s="27"/>
-      <c r="V45" s="27"/>
-      <c r="W45" s="27"/>
-      <c r="X45" s="7"/>
-      <c r="Y45" s="7"/>
-      <c r="Z45" s="21"/>
-      <c r="AA45" s="7"/>
-      <c r="AB45" s="21"/>
-      <c r="AC45" s="21"/>
-      <c r="AD45" s="7"/>
-      <c r="AE45" s="7"/>
-      <c r="AF45" s="21"/>
-      <c r="AG45" s="21"/>
-      <c r="AH45" s="21"/>
-      <c r="AI45" s="21"/>
-      <c r="AJ45" s="21"/>
-      <c r="AK45" s="21"/>
-      <c r="AL45" s="21"/>
-      <c r="AM45" s="21"/>
+    <row r="45" spans="1:62" s="9" customFormat="1" ht="18" customHeight="1">
+      <c r="C45" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="24"/>
+      <c r="E45" s="37"/>
       <c r="AN45" s="21"/>
       <c r="AO45" s="7"/>
-      <c r="AP45" s="38"/>
-      <c r="AQ45" s="7"/>
-      <c r="AR45" s="7"/>
-      <c r="AS45" s="7"/>
-      <c r="AU45" s="7"/>
-      <c r="AV45" s="7"/>
-    </row>
-    <row r="46" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A46" s="15"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" s="37"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="27"/>
-      <c r="R46" s="27"/>
-      <c r="S46" s="27"/>
-      <c r="T46" s="27"/>
-      <c r="U46" s="27"/>
-      <c r="V46" s="27"/>
-      <c r="W46" s="27"/>
-      <c r="X46" s="7"/>
-      <c r="Y46" s="7"/>
-      <c r="Z46" s="21"/>
-      <c r="AA46" s="7"/>
-      <c r="AB46" s="21"/>
-      <c r="AC46" s="21"/>
-      <c r="AD46" s="7"/>
-      <c r="AE46" s="7"/>
-      <c r="AF46" s="21"/>
-      <c r="AG46" s="21"/>
-      <c r="AH46" s="21"/>
-      <c r="AI46" s="21"/>
-      <c r="AJ46" s="21"/>
-      <c r="AK46" s="21"/>
-      <c r="AL46" s="21"/>
-      <c r="AM46" s="21"/>
+      <c r="AP45" s="32"/>
+      <c r="AT45" s="7"/>
+      <c r="AU45" s="8"/>
+      <c r="AV45" s="8"/>
+      <c r="AW45" s="7"/>
+      <c r="AX45" s="7"/>
+      <c r="AY45" s="7"/>
+      <c r="AZ45" s="7"/>
+      <c r="BA45" s="7"/>
+      <c r="BB45" s="7"/>
+      <c r="BC45" s="7"/>
+      <c r="BD45" s="7"/>
+      <c r="BE45" s="7"/>
+      <c r="BF45" s="7"/>
+      <c r="BG45" s="7"/>
+      <c r="BH45" s="7"/>
+      <c r="BI45" s="7"/>
+      <c r="BJ45" s="7"/>
+    </row>
+    <row r="46" spans="1:62" s="9" customFormat="1" ht="18" customHeight="1">
+      <c r="C46" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="24"/>
+      <c r="E46" s="37"/>
       <c r="AN46" s="21"/>
       <c r="AO46" s="7"/>
       <c r="AP46" s="32"/>
-      <c r="AQ46" s="7"/>
-      <c r="AR46" s="7"/>
-      <c r="AS46" s="7"/>
-      <c r="AU46" s="7"/>
-      <c r="AV46" s="7"/>
-    </row>
-    <row r="47" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A47" s="15"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="27"/>
-      <c r="S47" s="27"/>
-      <c r="T47" s="27"/>
-      <c r="U47" s="27"/>
-      <c r="V47" s="27"/>
-      <c r="W47" s="27"/>
-      <c r="X47" s="7"/>
-      <c r="Y47" s="7"/>
-      <c r="Z47" s="21"/>
-      <c r="AA47" s="7"/>
-      <c r="AB47" s="21"/>
-      <c r="AC47" s="21"/>
-      <c r="AD47" s="7"/>
-      <c r="AE47" s="7"/>
-      <c r="AF47" s="21"/>
-      <c r="AG47" s="21"/>
-      <c r="AH47" s="21"/>
-      <c r="AI47" s="21"/>
-      <c r="AJ47" s="21"/>
-      <c r="AK47" s="21"/>
-      <c r="AL47" s="21"/>
-      <c r="AM47" s="21"/>
+      <c r="AT46" s="7"/>
+      <c r="AU46" s="8"/>
+      <c r="AV46" s="8"/>
+      <c r="AW46" s="7"/>
+      <c r="AX46" s="7"/>
+      <c r="AY46" s="7"/>
+      <c r="AZ46" s="7"/>
+      <c r="BA46" s="7"/>
+      <c r="BB46" s="7"/>
+      <c r="BC46" s="7"/>
+      <c r="BD46" s="7"/>
+      <c r="BE46" s="7"/>
+      <c r="BF46" s="7"/>
+      <c r="BG46" s="7"/>
+      <c r="BH46" s="7"/>
+      <c r="BI46" s="7"/>
+      <c r="BJ46" s="7"/>
+    </row>
+    <row r="47" spans="1:62" s="9" customFormat="1" ht="18" customHeight="1">
+      <c r="C47" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="24"/>
+      <c r="E47" s="37"/>
       <c r="AN47" s="21"/>
       <c r="AO47" s="7"/>
       <c r="AP47" s="32"/>
-      <c r="AQ47" s="7"/>
-      <c r="AR47" s="7"/>
-      <c r="AS47" s="7"/>
-      <c r="AU47" s="7"/>
-      <c r="AV47" s="7"/>
-    </row>
-    <row r="48" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A48" s="15"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="27"/>
-      <c r="R48" s="27"/>
-      <c r="S48" s="27"/>
-      <c r="T48" s="27"/>
-      <c r="U48" s="27"/>
-      <c r="V48" s="27"/>
-      <c r="W48" s="27"/>
-      <c r="X48" s="7"/>
-      <c r="Y48" s="7"/>
-      <c r="Z48" s="21"/>
-      <c r="AA48" s="7"/>
-      <c r="AB48" s="21"/>
-      <c r="AC48" s="21"/>
-      <c r="AD48" s="7"/>
-      <c r="AE48" s="7"/>
-      <c r="AF48" s="21"/>
-      <c r="AG48" s="21"/>
-      <c r="AH48" s="21"/>
-      <c r="AI48" s="21"/>
-      <c r="AJ48" s="21"/>
-      <c r="AK48" s="21"/>
-      <c r="AL48" s="21"/>
-      <c r="AM48" s="21"/>
+      <c r="AT47" s="7"/>
+      <c r="AU47" s="8"/>
+      <c r="AV47" s="8"/>
+      <c r="AW47" s="7"/>
+      <c r="AX47" s="7"/>
+      <c r="AY47" s="7"/>
+      <c r="AZ47" s="7"/>
+      <c r="BA47" s="7"/>
+      <c r="BB47" s="7"/>
+      <c r="BC47" s="7"/>
+      <c r="BD47" s="7"/>
+      <c r="BE47" s="7"/>
+      <c r="BF47" s="7"/>
+      <c r="BG47" s="7"/>
+      <c r="BH47" s="7"/>
+      <c r="BI47" s="7"/>
+      <c r="BJ47" s="7"/>
+    </row>
+    <row r="48" spans="1:62" s="9" customFormat="1" ht="18" customHeight="1">
+      <c r="C48" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="24"/>
+      <c r="E48" s="37"/>
       <c r="AN48" s="21"/>
       <c r="AO48" s="7"/>
       <c r="AP48" s="32"/>
-      <c r="AQ48" s="7"/>
-      <c r="AR48" s="7"/>
-      <c r="AS48" s="7"/>
-      <c r="AU48" s="7"/>
-      <c r="AV48" s="7"/>
-    </row>
-    <row r="49" spans="1:48" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="AT48" s="7"/>
+      <c r="AU48" s="8"/>
+      <c r="AV48" s="8"/>
+      <c r="AW48" s="7"/>
+      <c r="AX48" s="7"/>
+      <c r="AY48" s="7"/>
+      <c r="AZ48" s="7"/>
+      <c r="BA48" s="7"/>
+      <c r="BB48" s="7"/>
+      <c r="BC48" s="7"/>
+      <c r="BD48" s="7"/>
+      <c r="BE48" s="7"/>
+      <c r="BF48" s="7"/>
+      <c r="BG48" s="7"/>
+      <c r="BH48" s="7"/>
+      <c r="BI48" s="7"/>
+      <c r="BJ48" s="7"/>
+    </row>
+    <row r="49" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A49" s="15"/>
       <c r="B49" s="20"/>
-      <c r="C49" s="21" t="s">
-        <v>47</v>
+      <c r="C49" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="D49" s="16"/>
       <c r="E49" s="17"/>
@@ -4669,13 +4819,12 @@
       <c r="AU49" s="7"/>
       <c r="AV49" s="7"/>
     </row>
-    <row r="50" spans="1:48" s="8" customFormat="1" ht="18" customHeight="1">
+    <row r="50" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A50" s="15"/>
-      <c r="B50" s="7"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50" s="16"/>
+        <v>41</v>
+      </c>
       <c r="E50" s="17"/>
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
@@ -4720,11 +4869,13 @@
       <c r="AU50" s="7"/>
       <c r="AV50" s="7"/>
     </row>
-    <row r="51" spans="1:48" s="8" customFormat="1" ht="18" customHeight="1">
+    <row r="51" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A51" s="15"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="16"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="21"/>
       <c r="E51" s="17"/>
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
@@ -4769,13 +4920,13 @@
       <c r="AU51" s="7"/>
       <c r="AV51" s="7"/>
     </row>
-    <row r="52" spans="1:48" s="8" customFormat="1" ht="18" customHeight="1">
+    <row r="52" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A52" s="15"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D52" s="16"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="21"/>
       <c r="E52" s="17"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
@@ -4820,11 +4971,11 @@
       <c r="AU52" s="7"/>
       <c r="AV52" s="7"/>
     </row>
-    <row r="53" spans="1:48" s="8" customFormat="1" ht="18" customHeight="1">
+    <row r="53" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A53" s="15"/>
       <c r="B53" s="20"/>
-      <c r="C53" s="8" t="s">
-        <v>63</v>
+      <c r="C53" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="D53" s="21"/>
       <c r="E53" s="17"/>
@@ -4871,19 +5022,17 @@
       <c r="AU53" s="7"/>
       <c r="AV53" s="7"/>
     </row>
-    <row r="54" spans="1:48" s="8" customFormat="1" ht="18" customHeight="1">
+    <row r="54" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A54" s="15"/>
       <c r="B54" s="20"/>
-      <c r="C54" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="37"/>
       <c r="E54" s="17"/>
       <c r="F54" s="25"/>
       <c r="G54" s="25"/>
-      <c r="H54" s="7"/>
+      <c r="H54" s="36"/>
       <c r="I54" s="17"/>
-      <c r="J54" s="26"/>
+      <c r="J54" s="17"/>
       <c r="K54" s="26"/>
       <c r="L54" s="26"/>
       <c r="M54" s="26"/>
@@ -4922,19 +5071,19 @@
       <c r="AU54" s="7"/>
       <c r="AV54" s="7"/>
     </row>
-    <row r="55" spans="1:48" s="8" customFormat="1" ht="18" customHeight="1">
+    <row r="55" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A55" s="15"/>
       <c r="B55" s="20"/>
-      <c r="C55" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D55" s="16"/>
+      <c r="C55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D55" s="37"/>
       <c r="E55" s="17"/>
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="7"/>
+      <c r="H55" s="36"/>
       <c r="I55" s="17"/>
-      <c r="J55" s="26"/>
+      <c r="J55" s="17"/>
       <c r="K55" s="26"/>
       <c r="L55" s="26"/>
       <c r="M55" s="26"/>
@@ -4966,167 +5115,107 @@
       <c r="AM55" s="21"/>
       <c r="AN55" s="21"/>
       <c r="AO55" s="7"/>
-      <c r="AP55" s="32"/>
+      <c r="AP55" s="38"/>
       <c r="AQ55" s="7"/>
       <c r="AR55" s="7"/>
       <c r="AS55" s="7"/>
       <c r="AU55" s="7"/>
       <c r="AV55" s="7"/>
     </row>
-    <row r="56" spans="1:48" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A56" s="15"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
-      <c r="M56" s="26"/>
-      <c r="N56" s="23"/>
-      <c r="O56" s="23"/>
-      <c r="P56" s="23"/>
-      <c r="Q56" s="27"/>
-      <c r="R56" s="27"/>
-      <c r="S56" s="27"/>
-      <c r="T56" s="27"/>
-      <c r="U56" s="27"/>
-      <c r="V56" s="27"/>
-      <c r="W56" s="27"/>
-      <c r="X56" s="7"/>
-      <c r="Y56" s="7"/>
-      <c r="Z56" s="21"/>
-      <c r="AA56" s="7"/>
-      <c r="AB56" s="21"/>
-      <c r="AC56" s="21"/>
-      <c r="AD56" s="7"/>
-      <c r="AE56" s="7"/>
-      <c r="AF56" s="21"/>
-      <c r="AG56" s="21"/>
-      <c r="AH56" s="21"/>
-      <c r="AI56" s="21"/>
-      <c r="AJ56" s="21"/>
-      <c r="AK56" s="21"/>
-      <c r="AL56" s="21"/>
-      <c r="AM56" s="21"/>
+    <row r="56" spans="1:62" s="9" customFormat="1" ht="18" customHeight="1">
+      <c r="C56" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="24"/>
+      <c r="E56" s="37"/>
       <c r="AN56" s="21"/>
       <c r="AO56" s="7"/>
       <c r="AP56" s="32"/>
-      <c r="AQ56" s="7"/>
-      <c r="AR56" s="7"/>
-      <c r="AS56" s="7"/>
-      <c r="AU56" s="7"/>
-      <c r="AV56" s="7"/>
-    </row>
-    <row r="57" spans="1:48" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A57" s="15"/>
-      <c r="B57" s="20"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="23"/>
-      <c r="O57" s="23"/>
-      <c r="P57" s="23"/>
-      <c r="Q57" s="27"/>
-      <c r="R57" s="27"/>
-      <c r="S57" s="27"/>
-      <c r="T57" s="27"/>
-      <c r="U57" s="27"/>
-      <c r="V57" s="27"/>
-      <c r="W57" s="27"/>
-      <c r="X57" s="7"/>
-      <c r="Y57" s="7"/>
-      <c r="Z57" s="21"/>
-      <c r="AA57" s="7"/>
-      <c r="AB57" s="21"/>
-      <c r="AC57" s="21"/>
-      <c r="AD57" s="7"/>
-      <c r="AE57" s="7"/>
-      <c r="AF57" s="21"/>
-      <c r="AG57" s="21"/>
-      <c r="AH57" s="21"/>
-      <c r="AI57" s="21"/>
-      <c r="AJ57" s="21"/>
-      <c r="AK57" s="21"/>
-      <c r="AL57" s="21"/>
-      <c r="AM57" s="21"/>
+      <c r="AT56" s="7"/>
+      <c r="AU56" s="8"/>
+      <c r="AV56" s="8"/>
+      <c r="AW56" s="7"/>
+      <c r="AX56" s="7"/>
+      <c r="AY56" s="7"/>
+      <c r="AZ56" s="7"/>
+      <c r="BA56" s="7"/>
+      <c r="BB56" s="7"/>
+      <c r="BC56" s="7"/>
+      <c r="BD56" s="7"/>
+      <c r="BE56" s="7"/>
+      <c r="BF56" s="7"/>
+      <c r="BG56" s="7"/>
+      <c r="BH56" s="7"/>
+      <c r="BI56" s="7"/>
+      <c r="BJ56" s="7"/>
+    </row>
+    <row r="57" spans="1:62" s="9" customFormat="1" ht="18" customHeight="1">
+      <c r="C57" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" s="24"/>
+      <c r="E57" s="37"/>
       <c r="AN57" s="21"/>
       <c r="AO57" s="7"/>
       <c r="AP57" s="32"/>
-      <c r="AQ57" s="7"/>
-      <c r="AR57" s="7"/>
-      <c r="AS57" s="7"/>
-      <c r="AU57" s="7"/>
-      <c r="AV57" s="7"/>
-    </row>
-    <row r="58" spans="1:48" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A58" s="15"/>
-      <c r="B58" s="20"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="23"/>
-      <c r="P58" s="23"/>
-      <c r="Q58" s="27"/>
-      <c r="R58" s="27"/>
-      <c r="S58" s="27"/>
-      <c r="T58" s="27"/>
-      <c r="U58" s="27"/>
-      <c r="V58" s="27"/>
-      <c r="W58" s="27"/>
-      <c r="X58" s="7"/>
-      <c r="Y58" s="7"/>
-      <c r="Z58" s="21"/>
-      <c r="AA58" s="7"/>
-      <c r="AB58" s="21"/>
-      <c r="AC58" s="21"/>
-      <c r="AD58" s="7"/>
-      <c r="AE58" s="7"/>
-      <c r="AF58" s="21"/>
-      <c r="AG58" s="21"/>
-      <c r="AH58" s="21"/>
-      <c r="AI58" s="21"/>
-      <c r="AJ58" s="21"/>
-      <c r="AK58" s="21"/>
-      <c r="AL58" s="21"/>
-      <c r="AM58" s="21"/>
+      <c r="AT57" s="7"/>
+      <c r="AU57" s="8"/>
+      <c r="AV57" s="8"/>
+      <c r="AW57" s="7"/>
+      <c r="AX57" s="7"/>
+      <c r="AY57" s="7"/>
+      <c r="AZ57" s="7"/>
+      <c r="BA57" s="7"/>
+      <c r="BB57" s="7"/>
+      <c r="BC57" s="7"/>
+      <c r="BD57" s="7"/>
+      <c r="BE57" s="7"/>
+      <c r="BF57" s="7"/>
+      <c r="BG57" s="7"/>
+      <c r="BH57" s="7"/>
+      <c r="BI57" s="7"/>
+      <c r="BJ57" s="7"/>
+    </row>
+    <row r="58" spans="1:62" s="9" customFormat="1" ht="18" customHeight="1">
+      <c r="C58" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="24"/>
+      <c r="E58" s="37"/>
       <c r="AN58" s="21"/>
       <c r="AO58" s="7"/>
       <c r="AP58" s="32"/>
-      <c r="AQ58" s="7"/>
-      <c r="AR58" s="7"/>
-      <c r="AS58" s="7"/>
-      <c r="AU58" s="7"/>
-      <c r="AV58" s="7"/>
-    </row>
-    <row r="59" spans="1:48" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="AT58" s="7"/>
+      <c r="AU58" s="8"/>
+      <c r="AV58" s="8"/>
+      <c r="AW58" s="7"/>
+      <c r="AX58" s="7"/>
+      <c r="AY58" s="7"/>
+      <c r="AZ58" s="7"/>
+      <c r="BA58" s="7"/>
+      <c r="BB58" s="7"/>
+      <c r="BC58" s="7"/>
+      <c r="BD58" s="7"/>
+      <c r="BE58" s="7"/>
+      <c r="BF58" s="7"/>
+      <c r="BG58" s="7"/>
+      <c r="BH58" s="7"/>
+      <c r="BI58" s="7"/>
+      <c r="BJ58" s="7"/>
+    </row>
+    <row r="59" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A59" s="15"/>
       <c r="B59" s="20"/>
-      <c r="D59" s="36"/>
+      <c r="C59" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59" s="37"/>
       <c r="E59" s="17"/>
       <c r="F59" s="25"/>
       <c r="G59" s="25"/>
-      <c r="H59" s="7"/>
+      <c r="H59" s="36"/>
       <c r="I59" s="17"/>
-      <c r="J59" s="26"/>
+      <c r="J59" s="17"/>
       <c r="K59" s="26"/>
       <c r="L59" s="26"/>
       <c r="M59" s="26"/>
@@ -5165,16 +5254,19 @@
       <c r="AU59" s="7"/>
       <c r="AV59" s="7"/>
     </row>
-    <row r="60" spans="1:48" s="10" customFormat="1" ht="15.6" customHeight="1">
+    <row r="60" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A60" s="15"/>
       <c r="B60" s="20"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="36"/>
+      <c r="C60" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" s="37"/>
       <c r="E60" s="17"/>
       <c r="F60" s="25"/>
       <c r="G60" s="25"/>
-      <c r="H60" s="7"/>
+      <c r="H60" s="36"/>
       <c r="I60" s="17"/>
-      <c r="J60" s="26"/>
+      <c r="J60" s="17"/>
       <c r="K60" s="26"/>
       <c r="L60" s="26"/>
       <c r="M60" s="26"/>
@@ -5196,20 +5288,36 @@
       <c r="AC60" s="21"/>
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
+      <c r="AF60" s="21"/>
+      <c r="AG60" s="21"/>
+      <c r="AH60" s="21"/>
+      <c r="AI60" s="21"/>
+      <c r="AJ60" s="21"/>
+      <c r="AK60" s="21"/>
+      <c r="AL60" s="21"/>
+      <c r="AM60" s="21"/>
+      <c r="AN60" s="21"/>
       <c r="AO60" s="7"/>
       <c r="AP60" s="32"/>
       <c r="AQ60" s="7"/>
-    </row>
-    <row r="61" spans="1:48" s="10" customFormat="1" ht="15.6" customHeight="1">
+      <c r="AR60" s="7"/>
+      <c r="AS60" s="7"/>
+      <c r="AU60" s="7"/>
+      <c r="AV60" s="7"/>
+    </row>
+    <row r="61" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A61" s="15"/>
       <c r="B61" s="20"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="36"/>
+      <c r="C61" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" s="28"/>
       <c r="E61" s="17"/>
       <c r="F61" s="25"/>
       <c r="G61" s="25"/>
-      <c r="H61" s="7"/>
+      <c r="H61" s="36"/>
       <c r="I61" s="17"/>
-      <c r="J61" s="26"/>
+      <c r="J61" s="17"/>
       <c r="K61" s="26"/>
       <c r="L61" s="26"/>
       <c r="M61" s="26"/>
@@ -5231,15 +5339,30 @@
       <c r="AC61" s="21"/>
       <c r="AD61" s="7"/>
       <c r="AE61" s="7"/>
+      <c r="AF61" s="21"/>
+      <c r="AG61" s="21"/>
+      <c r="AH61" s="21"/>
+      <c r="AI61" s="21"/>
+      <c r="AJ61" s="21"/>
+      <c r="AK61" s="21"/>
+      <c r="AL61" s="21"/>
+      <c r="AM61" s="21"/>
+      <c r="AN61" s="21"/>
       <c r="AO61" s="7"/>
       <c r="AP61" s="32"/>
-      <c r="AQ61" s="39"/>
-    </row>
-    <row r="62" spans="1:48" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="AQ61" s="7"/>
+      <c r="AR61" s="7"/>
+      <c r="AS61" s="7"/>
+      <c r="AU61" s="7"/>
+      <c r="AV61" s="7"/>
+    </row>
+    <row r="62" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A62" s="15"/>
       <c r="B62" s="20"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
+      <c r="C62" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" s="16"/>
       <c r="E62" s="17"/>
       <c r="F62" s="25"/>
       <c r="G62" s="25"/>
@@ -5284,11 +5407,13 @@
       <c r="AU62" s="7"/>
       <c r="AV62" s="7"/>
     </row>
-    <row r="63" spans="1:48" s="8" customFormat="1" ht="18" customHeight="1">
+    <row r="63" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A63" s="15"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="28"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" s="16"/>
       <c r="E63" s="17"/>
       <c r="F63" s="25"/>
       <c r="G63" s="25"/>
@@ -5333,11 +5458,11 @@
       <c r="AU63" s="7"/>
       <c r="AV63" s="7"/>
     </row>
-    <row r="64" spans="1:48" s="8" customFormat="1" ht="18" customHeight="1">
+    <row r="64" spans="1:62" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A64" s="15"/>
-      <c r="B64" s="20"/>
+      <c r="B64" s="7"/>
       <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
+      <c r="D64" s="16"/>
       <c r="E64" s="17"/>
       <c r="F64" s="25"/>
       <c r="G64" s="25"/>
@@ -5384,7 +5509,10 @@
     </row>
     <row r="65" spans="1:48" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A65" s="15"/>
-      <c r="B65" s="20"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="D65" s="16"/>
       <c r="E65" s="17"/>
       <c r="F65" s="25"/>
@@ -5433,7 +5561,9 @@
     <row r="66" spans="1:48" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A66" s="15"/>
       <c r="B66" s="20"/>
-      <c r="C66" s="21"/>
+      <c r="C66" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="D66" s="21"/>
       <c r="E66" s="17"/>
       <c r="F66" s="25"/>
@@ -5482,7 +5612,9 @@
     <row r="67" spans="1:48" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A67" s="15"/>
       <c r="B67" s="20"/>
-      <c r="C67" s="21"/>
+      <c r="C67" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="D67" s="21"/>
       <c r="E67" s="17"/>
       <c r="F67" s="25"/>
@@ -5531,7 +5663,9 @@
     <row r="68" spans="1:48" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A68" s="15"/>
       <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
+      <c r="C68" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="D68" s="21"/>
       <c r="E68" s="17"/>
       <c r="F68" s="25"/>
@@ -5580,7 +5714,9 @@
     <row r="69" spans="1:48" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A69" s="15"/>
       <c r="B69" s="20"/>
-      <c r="C69" s="21"/>
+      <c r="C69" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="D69" s="21"/>
       <c r="E69" s="17"/>
       <c r="F69" s="25"/>
@@ -5626,27 +5762,731 @@
       <c r="AU69" s="7"/>
       <c r="AV69" s="7"/>
     </row>
-    <row r="70" spans="1:48" ht="13.5" customHeight="1">
+    <row r="70" spans="1:48" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A70" s="15"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D70" s="16"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="26"/>
+      <c r="N70" s="23"/>
+      <c r="O70" s="23"/>
+      <c r="P70" s="23"/>
+      <c r="Q70" s="27"/>
+      <c r="R70" s="27"/>
+      <c r="S70" s="27"/>
+      <c r="T70" s="27"/>
+      <c r="U70" s="27"/>
+      <c r="V70" s="27"/>
+      <c r="W70" s="27"/>
+      <c r="X70" s="7"/>
+      <c r="Y70" s="7"/>
+      <c r="Z70" s="21"/>
+      <c r="AA70" s="7"/>
+      <c r="AB70" s="21"/>
+      <c r="AC70" s="21"/>
+      <c r="AD70" s="7"/>
+      <c r="AE70" s="7"/>
+      <c r="AF70" s="21"/>
+      <c r="AG70" s="21"/>
+      <c r="AH70" s="21"/>
+      <c r="AI70" s="21"/>
+      <c r="AJ70" s="21"/>
+      <c r="AK70" s="21"/>
+      <c r="AL70" s="21"/>
       <c r="AM70" s="21"/>
       <c r="AN70" s="21"/>
       <c r="AO70" s="7"/>
       <c r="AP70" s="32"/>
       <c r="AQ70" s="7"/>
-    </row>
-    <row r="71" spans="1:48" ht="13.5" customHeight="1">
-      <c r="D71" s="28"/>
+      <c r="AR70" s="7"/>
+      <c r="AS70" s="7"/>
+      <c r="AU70" s="7"/>
+      <c r="AV70" s="7"/>
+    </row>
+    <row r="71" spans="1:48" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A71" s="15"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="26"/>
+      <c r="N71" s="23"/>
+      <c r="O71" s="23"/>
+      <c r="P71" s="23"/>
+      <c r="Q71" s="27"/>
+      <c r="R71" s="27"/>
+      <c r="S71" s="27"/>
+      <c r="T71" s="27"/>
+      <c r="U71" s="27"/>
+      <c r="V71" s="27"/>
+      <c r="W71" s="27"/>
+      <c r="X71" s="7"/>
+      <c r="Y71" s="7"/>
+      <c r="Z71" s="21"/>
+      <c r="AA71" s="7"/>
+      <c r="AB71" s="21"/>
+      <c r="AC71" s="21"/>
+      <c r="AD71" s="7"/>
+      <c r="AE71" s="7"/>
+      <c r="AF71" s="21"/>
+      <c r="AG71" s="21"/>
+      <c r="AH71" s="21"/>
+      <c r="AI71" s="21"/>
+      <c r="AJ71" s="21"/>
+      <c r="AK71" s="21"/>
+      <c r="AL71" s="21"/>
       <c r="AM71" s="21"/>
       <c r="AN71" s="21"/>
       <c r="AO71" s="7"/>
       <c r="AP71" s="32"/>
       <c r="AQ71" s="7"/>
-    </row>
-    <row r="72" spans="1:48" ht="13.5" customHeight="1">
+      <c r="AR71" s="7"/>
+      <c r="AS71" s="7"/>
+      <c r="AU71" s="7"/>
+      <c r="AV71" s="7"/>
+    </row>
+    <row r="72" spans="1:48" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A72" s="15"/>
+      <c r="B72" s="20"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="26"/>
+      <c r="M72" s="26"/>
+      <c r="N72" s="23"/>
+      <c r="O72" s="23"/>
+      <c r="P72" s="23"/>
+      <c r="Q72" s="27"/>
+      <c r="R72" s="27"/>
+      <c r="S72" s="27"/>
+      <c r="T72" s="27"/>
+      <c r="U72" s="27"/>
+      <c r="V72" s="27"/>
+      <c r="W72" s="27"/>
+      <c r="X72" s="7"/>
+      <c r="Y72" s="7"/>
+      <c r="Z72" s="21"/>
+      <c r="AA72" s="7"/>
+      <c r="AB72" s="21"/>
+      <c r="AC72" s="21"/>
+      <c r="AD72" s="7"/>
+      <c r="AE72" s="7"/>
+      <c r="AF72" s="21"/>
+      <c r="AG72" s="21"/>
+      <c r="AH72" s="21"/>
+      <c r="AI72" s="21"/>
+      <c r="AJ72" s="21"/>
+      <c r="AK72" s="21"/>
+      <c r="AL72" s="21"/>
       <c r="AM72" s="21"/>
       <c r="AN72" s="21"/>
       <c r="AO72" s="7"/>
       <c r="AP72" s="32"/>
       <c r="AQ72" s="7"/>
+      <c r="AR72" s="7"/>
+      <c r="AS72" s="7"/>
+      <c r="AU72" s="7"/>
+      <c r="AV72" s="7"/>
+    </row>
+    <row r="73" spans="1:48" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A73" s="15"/>
+      <c r="B73" s="20"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="26"/>
+      <c r="M73" s="26"/>
+      <c r="N73" s="23"/>
+      <c r="O73" s="23"/>
+      <c r="P73" s="23"/>
+      <c r="Q73" s="27"/>
+      <c r="R73" s="27"/>
+      <c r="S73" s="27"/>
+      <c r="T73" s="27"/>
+      <c r="U73" s="27"/>
+      <c r="V73" s="27"/>
+      <c r="W73" s="27"/>
+      <c r="X73" s="7"/>
+      <c r="Y73" s="7"/>
+      <c r="Z73" s="21"/>
+      <c r="AA73" s="7"/>
+      <c r="AB73" s="21"/>
+      <c r="AC73" s="21"/>
+      <c r="AD73" s="7"/>
+      <c r="AE73" s="7"/>
+      <c r="AF73" s="21"/>
+      <c r="AG73" s="21"/>
+      <c r="AH73" s="21"/>
+      <c r="AI73" s="21"/>
+      <c r="AJ73" s="21"/>
+      <c r="AK73" s="21"/>
+      <c r="AL73" s="21"/>
+      <c r="AM73" s="21"/>
+      <c r="AN73" s="21"/>
+      <c r="AO73" s="7"/>
+      <c r="AP73" s="32"/>
+      <c r="AQ73" s="7"/>
+      <c r="AR73" s="7"/>
+      <c r="AS73" s="7"/>
+      <c r="AU73" s="7"/>
+      <c r="AV73" s="7"/>
+    </row>
+    <row r="74" spans="1:48" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A74" s="15"/>
+      <c r="B74" s="20"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="26"/>
+      <c r="N74" s="23"/>
+      <c r="O74" s="23"/>
+      <c r="P74" s="23"/>
+      <c r="Q74" s="27"/>
+      <c r="R74" s="27"/>
+      <c r="S74" s="27"/>
+      <c r="T74" s="27"/>
+      <c r="U74" s="27"/>
+      <c r="V74" s="27"/>
+      <c r="W74" s="27"/>
+      <c r="X74" s="7"/>
+      <c r="Y74" s="7"/>
+      <c r="Z74" s="21"/>
+      <c r="AA74" s="7"/>
+      <c r="AB74" s="21"/>
+      <c r="AC74" s="21"/>
+      <c r="AD74" s="7"/>
+      <c r="AE74" s="7"/>
+      <c r="AF74" s="21"/>
+      <c r="AG74" s="21"/>
+      <c r="AH74" s="21"/>
+      <c r="AI74" s="21"/>
+      <c r="AJ74" s="21"/>
+      <c r="AK74" s="21"/>
+      <c r="AL74" s="21"/>
+      <c r="AM74" s="21"/>
+      <c r="AN74" s="21"/>
+      <c r="AO74" s="7"/>
+      <c r="AP74" s="32"/>
+      <c r="AQ74" s="7"/>
+      <c r="AR74" s="7"/>
+      <c r="AS74" s="7"/>
+      <c r="AU74" s="7"/>
+      <c r="AV74" s="7"/>
+    </row>
+    <row r="75" spans="1:48" s="10" customFormat="1" ht="15.6" customHeight="1">
+      <c r="B75" s="20"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="26"/>
+      <c r="N75" s="23"/>
+      <c r="O75" s="23"/>
+      <c r="P75" s="23"/>
+      <c r="Q75" s="27"/>
+      <c r="R75" s="27"/>
+      <c r="S75" s="27"/>
+      <c r="T75" s="27"/>
+      <c r="U75" s="27"/>
+      <c r="V75" s="27"/>
+      <c r="W75" s="27"/>
+      <c r="X75" s="7"/>
+      <c r="Y75" s="7"/>
+      <c r="Z75" s="21"/>
+      <c r="AA75" s="7"/>
+      <c r="AB75" s="21"/>
+      <c r="AC75" s="21"/>
+      <c r="AD75" s="7"/>
+      <c r="AE75" s="7"/>
+      <c r="AO75" s="7"/>
+      <c r="AP75" s="32"/>
+      <c r="AQ75" s="7"/>
+    </row>
+    <row r="76" spans="1:48" s="10" customFormat="1" ht="15.6" customHeight="1">
+      <c r="B76" s="20"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="26"/>
+      <c r="M76" s="26"/>
+      <c r="N76" s="23"/>
+      <c r="O76" s="23"/>
+      <c r="P76" s="23"/>
+      <c r="Q76" s="27"/>
+      <c r="R76" s="27"/>
+      <c r="S76" s="27"/>
+      <c r="T76" s="27"/>
+      <c r="U76" s="27"/>
+      <c r="V76" s="27"/>
+      <c r="W76" s="27"/>
+      <c r="X76" s="7"/>
+      <c r="Y76" s="7"/>
+      <c r="Z76" s="21"/>
+      <c r="AA76" s="7"/>
+      <c r="AB76" s="21"/>
+      <c r="AC76" s="21"/>
+      <c r="AD76" s="7"/>
+      <c r="AE76" s="7"/>
+      <c r="AO76" s="7"/>
+      <c r="AP76" s="32"/>
+      <c r="AQ76" s="39"/>
+    </row>
+    <row r="77" spans="1:48" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A77" s="15"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="26"/>
+      <c r="N77" s="23"/>
+      <c r="O77" s="23"/>
+      <c r="P77" s="23"/>
+      <c r="Q77" s="27"/>
+      <c r="R77" s="27"/>
+      <c r="S77" s="27"/>
+      <c r="T77" s="27"/>
+      <c r="U77" s="27"/>
+      <c r="V77" s="27"/>
+      <c r="W77" s="27"/>
+      <c r="X77" s="7"/>
+      <c r="Y77" s="7"/>
+      <c r="Z77" s="21"/>
+      <c r="AA77" s="7"/>
+      <c r="AB77" s="21"/>
+      <c r="AC77" s="21"/>
+      <c r="AD77" s="7"/>
+      <c r="AE77" s="7"/>
+      <c r="AF77" s="21"/>
+      <c r="AG77" s="21"/>
+      <c r="AH77" s="21"/>
+      <c r="AI77" s="21"/>
+      <c r="AJ77" s="21"/>
+      <c r="AK77" s="21"/>
+      <c r="AL77" s="21"/>
+      <c r="AM77" s="21"/>
+      <c r="AN77" s="21"/>
+      <c r="AO77" s="7"/>
+      <c r="AP77" s="32"/>
+      <c r="AQ77" s="7"/>
+      <c r="AR77" s="7"/>
+      <c r="AS77" s="7"/>
+      <c r="AU77" s="7"/>
+      <c r="AV77" s="7"/>
+    </row>
+    <row r="78" spans="1:48" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A78" s="15"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="26"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="26"/>
+      <c r="N78" s="23"/>
+      <c r="O78" s="23"/>
+      <c r="P78" s="23"/>
+      <c r="Q78" s="27"/>
+      <c r="R78" s="27"/>
+      <c r="S78" s="27"/>
+      <c r="T78" s="27"/>
+      <c r="U78" s="27"/>
+      <c r="V78" s="27"/>
+      <c r="W78" s="27"/>
+      <c r="X78" s="7"/>
+      <c r="Y78" s="7"/>
+      <c r="Z78" s="21"/>
+      <c r="AA78" s="7"/>
+      <c r="AB78" s="21"/>
+      <c r="AC78" s="21"/>
+      <c r="AD78" s="7"/>
+      <c r="AE78" s="7"/>
+      <c r="AF78" s="21"/>
+      <c r="AG78" s="21"/>
+      <c r="AH78" s="21"/>
+      <c r="AI78" s="21"/>
+      <c r="AJ78" s="21"/>
+      <c r="AK78" s="21"/>
+      <c r="AL78" s="21"/>
+      <c r="AM78" s="21"/>
+      <c r="AN78" s="21"/>
+      <c r="AO78" s="7"/>
+      <c r="AP78" s="32"/>
+      <c r="AQ78" s="7"/>
+      <c r="AR78" s="7"/>
+      <c r="AS78" s="7"/>
+      <c r="AU78" s="7"/>
+      <c r="AV78" s="7"/>
+    </row>
+    <row r="79" spans="1:48" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A79" s="15"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26"/>
+      <c r="L79" s="26"/>
+      <c r="M79" s="26"/>
+      <c r="N79" s="23"/>
+      <c r="O79" s="23"/>
+      <c r="P79" s="23"/>
+      <c r="Q79" s="27"/>
+      <c r="R79" s="27"/>
+      <c r="S79" s="27"/>
+      <c r="T79" s="27"/>
+      <c r="U79" s="27"/>
+      <c r="V79" s="27"/>
+      <c r="W79" s="27"/>
+      <c r="X79" s="7"/>
+      <c r="Y79" s="7"/>
+      <c r="Z79" s="21"/>
+      <c r="AA79" s="7"/>
+      <c r="AB79" s="21"/>
+      <c r="AC79" s="21"/>
+      <c r="AD79" s="7"/>
+      <c r="AE79" s="7"/>
+      <c r="AF79" s="21"/>
+      <c r="AG79" s="21"/>
+      <c r="AH79" s="21"/>
+      <c r="AI79" s="21"/>
+      <c r="AJ79" s="21"/>
+      <c r="AK79" s="21"/>
+      <c r="AL79" s="21"/>
+      <c r="AM79" s="21"/>
+      <c r="AN79" s="21"/>
+      <c r="AO79" s="7"/>
+      <c r="AP79" s="32"/>
+      <c r="AQ79" s="7"/>
+      <c r="AR79" s="7"/>
+      <c r="AS79" s="7"/>
+      <c r="AU79" s="7"/>
+      <c r="AV79" s="7"/>
+    </row>
+    <row r="80" spans="1:48" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A80" s="15"/>
+      <c r="B80" s="20"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="26"/>
+      <c r="K80" s="26"/>
+      <c r="L80" s="26"/>
+      <c r="M80" s="26"/>
+      <c r="N80" s="23"/>
+      <c r="O80" s="23"/>
+      <c r="P80" s="23"/>
+      <c r="Q80" s="27"/>
+      <c r="R80" s="27"/>
+      <c r="S80" s="27"/>
+      <c r="T80" s="27"/>
+      <c r="U80" s="27"/>
+      <c r="V80" s="27"/>
+      <c r="W80" s="27"/>
+      <c r="X80" s="7"/>
+      <c r="Y80" s="7"/>
+      <c r="Z80" s="21"/>
+      <c r="AA80" s="7"/>
+      <c r="AB80" s="21"/>
+      <c r="AC80" s="21"/>
+      <c r="AD80" s="7"/>
+      <c r="AE80" s="7"/>
+      <c r="AF80" s="21"/>
+      <c r="AG80" s="21"/>
+      <c r="AH80" s="21"/>
+      <c r="AI80" s="21"/>
+      <c r="AJ80" s="21"/>
+      <c r="AK80" s="21"/>
+      <c r="AL80" s="21"/>
+      <c r="AM80" s="21"/>
+      <c r="AN80" s="21"/>
+      <c r="AO80" s="7"/>
+      <c r="AP80" s="32"/>
+      <c r="AQ80" s="7"/>
+      <c r="AR80" s="7"/>
+      <c r="AS80" s="7"/>
+      <c r="AU80" s="7"/>
+      <c r="AV80" s="7"/>
+    </row>
+    <row r="81" spans="1:48" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A81" s="15"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="26"/>
+      <c r="K81" s="26"/>
+      <c r="L81" s="26"/>
+      <c r="M81" s="26"/>
+      <c r="N81" s="23"/>
+      <c r="O81" s="23"/>
+      <c r="P81" s="23"/>
+      <c r="Q81" s="27"/>
+      <c r="R81" s="27"/>
+      <c r="S81" s="27"/>
+      <c r="T81" s="27"/>
+      <c r="U81" s="27"/>
+      <c r="V81" s="27"/>
+      <c r="W81" s="27"/>
+      <c r="X81" s="7"/>
+      <c r="Y81" s="7"/>
+      <c r="Z81" s="21"/>
+      <c r="AA81" s="7"/>
+      <c r="AB81" s="21"/>
+      <c r="AC81" s="21"/>
+      <c r="AD81" s="7"/>
+      <c r="AE81" s="7"/>
+      <c r="AF81" s="21"/>
+      <c r="AG81" s="21"/>
+      <c r="AH81" s="21"/>
+      <c r="AI81" s="21"/>
+      <c r="AJ81" s="21"/>
+      <c r="AK81" s="21"/>
+      <c r="AL81" s="21"/>
+      <c r="AM81" s="21"/>
+      <c r="AN81" s="21"/>
+      <c r="AO81" s="7"/>
+      <c r="AP81" s="32"/>
+      <c r="AQ81" s="7"/>
+      <c r="AR81" s="7"/>
+      <c r="AS81" s="7"/>
+      <c r="AU81" s="7"/>
+      <c r="AV81" s="7"/>
+    </row>
+    <row r="82" spans="1:48" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A82" s="15"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="26"/>
+      <c r="L82" s="26"/>
+      <c r="M82" s="26"/>
+      <c r="N82" s="23"/>
+      <c r="O82" s="23"/>
+      <c r="P82" s="23"/>
+      <c r="Q82" s="27"/>
+      <c r="R82" s="27"/>
+      <c r="S82" s="27"/>
+      <c r="T82" s="27"/>
+      <c r="U82" s="27"/>
+      <c r="V82" s="27"/>
+      <c r="W82" s="27"/>
+      <c r="X82" s="7"/>
+      <c r="Y82" s="7"/>
+      <c r="Z82" s="21"/>
+      <c r="AA82" s="7"/>
+      <c r="AB82" s="21"/>
+      <c r="AC82" s="21"/>
+      <c r="AD82" s="7"/>
+      <c r="AE82" s="7"/>
+      <c r="AF82" s="21"/>
+      <c r="AG82" s="21"/>
+      <c r="AH82" s="21"/>
+      <c r="AI82" s="21"/>
+      <c r="AJ82" s="21"/>
+      <c r="AK82" s="21"/>
+      <c r="AL82" s="21"/>
+      <c r="AM82" s="21"/>
+      <c r="AN82" s="21"/>
+      <c r="AO82" s="7"/>
+      <c r="AP82" s="32"/>
+      <c r="AQ82" s="7"/>
+      <c r="AR82" s="7"/>
+      <c r="AS82" s="7"/>
+      <c r="AU82" s="7"/>
+      <c r="AV82" s="7"/>
+    </row>
+    <row r="83" spans="1:48" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A83" s="15"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="26"/>
+      <c r="L83" s="26"/>
+      <c r="M83" s="26"/>
+      <c r="N83" s="23"/>
+      <c r="O83" s="23"/>
+      <c r="P83" s="23"/>
+      <c r="Q83" s="27"/>
+      <c r="R83" s="27"/>
+      <c r="S83" s="27"/>
+      <c r="T83" s="27"/>
+      <c r="U83" s="27"/>
+      <c r="V83" s="27"/>
+      <c r="W83" s="27"/>
+      <c r="X83" s="7"/>
+      <c r="Y83" s="7"/>
+      <c r="Z83" s="21"/>
+      <c r="AA83" s="7"/>
+      <c r="AB83" s="21"/>
+      <c r="AC83" s="21"/>
+      <c r="AD83" s="7"/>
+      <c r="AE83" s="7"/>
+      <c r="AF83" s="21"/>
+      <c r="AG83" s="21"/>
+      <c r="AH83" s="21"/>
+      <c r="AI83" s="21"/>
+      <c r="AJ83" s="21"/>
+      <c r="AK83" s="21"/>
+      <c r="AL83" s="21"/>
+      <c r="AM83" s="21"/>
+      <c r="AN83" s="21"/>
+      <c r="AO83" s="7"/>
+      <c r="AP83" s="32"/>
+      <c r="AQ83" s="7"/>
+      <c r="AR83" s="7"/>
+      <c r="AS83" s="7"/>
+      <c r="AU83" s="7"/>
+      <c r="AV83" s="7"/>
+    </row>
+    <row r="84" spans="1:48" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A84" s="15"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="26"/>
+      <c r="L84" s="26"/>
+      <c r="M84" s="26"/>
+      <c r="N84" s="23"/>
+      <c r="O84" s="23"/>
+      <c r="P84" s="23"/>
+      <c r="Q84" s="27"/>
+      <c r="R84" s="27"/>
+      <c r="S84" s="27"/>
+      <c r="T84" s="27"/>
+      <c r="U84" s="27"/>
+      <c r="V84" s="27"/>
+      <c r="W84" s="27"/>
+      <c r="X84" s="7"/>
+      <c r="Y84" s="7"/>
+      <c r="Z84" s="21"/>
+      <c r="AA84" s="7"/>
+      <c r="AB84" s="21"/>
+      <c r="AC84" s="21"/>
+      <c r="AD84" s="7"/>
+      <c r="AE84" s="7"/>
+      <c r="AF84" s="21"/>
+      <c r="AG84" s="21"/>
+      <c r="AH84" s="21"/>
+      <c r="AI84" s="21"/>
+      <c r="AJ84" s="21"/>
+      <c r="AK84" s="21"/>
+      <c r="AL84" s="21"/>
+      <c r="AM84" s="21"/>
+      <c r="AN84" s="21"/>
+      <c r="AO84" s="7"/>
+      <c r="AP84" s="32"/>
+      <c r="AQ84" s="7"/>
+      <c r="AR84" s="7"/>
+      <c r="AS84" s="7"/>
+      <c r="AU84" s="7"/>
+      <c r="AV84" s="7"/>
+    </row>
+    <row r="85" spans="1:48" ht="13.5" customHeight="1">
+      <c r="AM85" s="21"/>
+      <c r="AN85" s="21"/>
+      <c r="AO85" s="7"/>
+      <c r="AP85" s="32"/>
+      <c r="AQ85" s="7"/>
+    </row>
+    <row r="86" spans="1:48" ht="13.5" customHeight="1">
+      <c r="D86" s="28"/>
+      <c r="AM86" s="21"/>
+      <c r="AN86" s="21"/>
+      <c r="AO86" s="7"/>
+      <c r="AP86" s="32"/>
+      <c r="AQ86" s="7"/>
+    </row>
+    <row r="87" spans="1:48" ht="13.5" customHeight="1">
+      <c r="AM87" s="21"/>
+      <c r="AN87" s="21"/>
+      <c r="AO87" s="7"/>
+      <c r="AP87" s="32"/>
+      <c r="AQ87" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
